--- a/S1_Quantitative_ResearchMethods/Allg/LearningPlan_QNRM.xlsx
+++ b/S1_Quantitative_ResearchMethods/Allg/LearningPlan_QNRM.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -434,6 +434,12 @@
         <v>6</v>
       </c>
       <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
@@ -445,6 +451,12 @@
         <v>7</v>
       </c>
       <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
@@ -456,6 +468,12 @@
         <v>8</v>
       </c>
       <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
@@ -467,6 +485,12 @@
         <v>9</v>
       </c>
       <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
     </row>
@@ -478,6 +502,12 @@
         <v>10</v>
       </c>
       <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
     </row>
@@ -489,6 +519,12 @@
         <v>11</v>
       </c>
       <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
@@ -500,7 +536,13 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
